--- a/biology/Botanique/Nothofagaceae/Nothofagaceae.xlsx
+++ b/biology/Botanique/Nothofagaceae/Nothofagaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Nothofagaceae sont une famille de plantes dicotylédones qui comprend un unique genre, Nothofagus, comptant 35 espèces.
 Le genre Nothofagus regroupe des espèces d'arbres à feuilles caduques ou persistantes, originaires des régions tropicales humides et de régions tempérées de l'hémisphère sud : Nouvelle-Guinée, Australie, Amérique du Sud, Nouvelle-Calédonie, Nouvelle-Zélande. Ces arbres sont proches des hêtres de l'hémisphère nord.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type  Nothofagus qui dérive du grec ancien νόθος / nóthos, bâtard, et du latin fāgus, hêtre, le nom de genre signifiant « faux hêtre », en référence à la séparation de ce genre des hêtres de l'hémisphère nord, en 1850, par le  botaniste germano-hollandais Carl Ludwig Blume (1796-1862).
 </t>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La position du genre Nothofagus, créé en 1850 par le taxonomiste Carl Ludwig Blume, est encore discutée. Classiquement, ce genre est inclus dans les Fagaceae, mais la classification phylogénétique APG (1998)[1], la classification phylogénétique APG II (2003)[2] et la classification phylogénétique APG III (2009)[3] acceptent cette famille.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La position du genre Nothofagus, créé en 1850 par le taxonomiste Carl Ludwig Blume, est encore discutée. Classiquement, ce genre est inclus dans les Fagaceae, mais la classification phylogénétique APG (1998), la classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) acceptent cette famille.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 mai 2010)[4], Angiosperm Phylogeny Website                        (31 mai 2010)[5] et NCBI  (31 mai 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 mai 2010), Angiosperm Phylogeny Website                        (31 mai 2010) et NCBI  (31 mai 2010) :
 genre Nothofagus Blume (1851)</t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (31 mai 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (31 mai 2010) :
 genre Nothofagus Blume (1851)
 Nothofagus aequilateralis (Baum.-Bod.) Steenis (1954)
 Nothofagus alessandrii Espinosa (1928)
@@ -650,7 +670,7 @@
 Nothofagus starkenborghii Steenis (1952)
 Nothofagus stylosa Steenis (1986)
 Nothofagus womersleyi Steenis (1972)
-Selon NCBI  (31 mai 2010)[6] :
+Selon NCBI  (31 mai 2010) :
 genre Nothofagus
 Nothofagus aequilateralis
 Nothofagus alessandri
